--- a/data/trans_dic/P04D$notiene-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P04D$notiene-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,57; 7,12</t>
+          <t>2,61; 7,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,36; 13,79</t>
+          <t>7,25; 13,67</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6,27; 11,55</t>
+          <t>6,19; 11,45</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,62; 6,91</t>
+          <t>1,66; 6,87</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,74; 13,3</t>
+          <t>6,61; 13,23</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>8,6; 14,33</t>
+          <t>8,74; 15,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,72; 6,39</t>
+          <t>2,67; 6,18</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>7,93; 12,13</t>
+          <t>7,7; 12,43</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>8,16; 11,92</t>
+          <t>8,06; 11,79</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,91; 4,16</t>
+          <t>0,92; 4,19</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,85; 14,57</t>
+          <t>7,71; 14,46</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,28; 14,77</t>
+          <t>8,17; 14,6</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,84; 7,96</t>
+          <t>3,0; 7,84</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>6,51; 12,62</t>
+          <t>6,7; 13,2</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>10,23; 16,51</t>
+          <t>10,08; 16,19</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,13; 4,85</t>
+          <t>2,16; 4,82</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>8,03; 12,72</t>
+          <t>7,85; 12,59</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>9,96; 14,47</t>
+          <t>9,88; 14,32</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,49; 6,03</t>
+          <t>2,52; 5,8</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>11,87; 18,5</t>
+          <t>12,05; 18,35</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,54; 11,11</t>
+          <t>1,89; 11,13</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,42; 9,24</t>
+          <t>3,42; 9,2</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,83; 14,05</t>
+          <t>4,69; 14,7</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>9,75; 19,2</t>
+          <t>9,41; 18,57</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,08; 5,96</t>
+          <t>3,24; 6,07</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>10,99; 16,63</t>
+          <t>11,17; 16,67</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,33; 12,14</t>
+          <t>3,2; 11,9</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,52; 6,09</t>
+          <t>3,48; 6,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>14,25; 18,84</t>
+          <t>14,42; 18,8</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>10,01; 14,85</t>
+          <t>9,75; 14,8</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,33; 6,68</t>
+          <t>3,19; 6,55</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>13,09; 18,05</t>
+          <t>12,86; 17,98</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,4; 12,24</t>
+          <t>4,59; 12,31</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,81; 5,85</t>
+          <t>3,76; 5,83</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>14,26; 17,78</t>
+          <t>14,33; 17,79</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>7,36; 12,57</t>
+          <t>7,42; 12,54</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>3,16; 7,04</t>
+          <t>3,16; 6,9</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>18,25; 24,94</t>
+          <t>17,83; 24,59</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>10,47; 16,37</t>
+          <t>10,56; 16,53</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,78; 5,82</t>
+          <t>2,62; 5,58</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>14,88; 20,66</t>
+          <t>14,78; 20,41</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>9,27; 39,84</t>
+          <t>9,44; 42,51</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>3,32; 5,66</t>
+          <t>3,36; 5,71</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>17,07; 21,36</t>
+          <t>17,19; 21,59</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>10,56; 28,59</t>
+          <t>10,65; 31,13</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1236,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,16; 7,8</t>
+          <t>2,16; 7,66</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>12,06; 20,82</t>
+          <t>12,12; 20,8</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4,91; 21,24</t>
+          <t>5,32; 20,91</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>3,29; 5,89</t>
+          <t>3,39; 5,97</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>14,35; 18,89</t>
+          <t>14,2; 19,04</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>8,32; 12,67</t>
+          <t>8,32; 13,05</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>3,37; 5,66</t>
+          <t>3,44; 5,65</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>14,35; 18,48</t>
+          <t>14,26; 18,42</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>8,17; 13,24</t>
+          <t>8,14; 13,29</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>3,43; 4,94</t>
+          <t>3,49; 4,92</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>14,39; 16,95</t>
+          <t>14,36; 17,04</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>7,95; 11,8</t>
+          <t>7,9; 11,75</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,85; 5,21</t>
+          <t>3,84; 5,28</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>13,43; 15,9</t>
+          <t>13,47; 15,89</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>9,91; 18,74</t>
+          <t>9,91; 18,84</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>3,84; 4,84</t>
+          <t>3,85; 4,81</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>14,17; 15,94</t>
+          <t>14,19; 15,96</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>9,85; 14,32</t>
+          <t>9,77; 14,53</t>
         </is>
       </c>
     </row>
@@ -1412,4 +1413,1291 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que no tiene calefacción ni aparatos de calefacción en su vivienda</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>19407</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>43450</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>43103</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>11648</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>33393</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>49973</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>31055</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>76843</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>93076</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>11424; 30622</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>31095; 58650</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>31215; 57747</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>5213; 21589</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>22932; 45922</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>39002; 66924</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>20085; 46421</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>59763; 96480</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>76589; 112020</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>8454</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>40870</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>50286</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>16498</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>34490</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>49846</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>24951</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>75360</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>100132</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>3826; 17461</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>29085; 54539</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>36963; 66041</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>10135; 26488</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>24941; 49158</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>38559; 61953</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>16277; 36338</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>58869; 94364</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>82500; 119583</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>24499</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>78956</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>42894</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>15251</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>14291</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>22171</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>39751</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>93246</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>65065</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>15867; 36501</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>62901; 95786</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>12582; 74292</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>8901; 23925</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>7796; 24418</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>15545; 30680</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>28817; 54002</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>76820; 114677</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>26655; 99072</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>297</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>286</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>54062</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>187940</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>123577</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>35904</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>126230</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>89999</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>89966</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>314170</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>213576</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>40219; 69434</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>165749; 216110</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>100599; 152668</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>24409; 50150</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>106219; 148497</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>44793; 120267</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>72373; 112009</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>283068; 351474</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>148955; 251949</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>227</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>24931</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>131947</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>62822</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>30402</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>129549</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>146526</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>55333</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>261495</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>209348</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>16065; 35119</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>110699; 152629</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>50060; 78340</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>19930; 42393</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>109135; 150697</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>79240; 356816</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>42680; 72451</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>233659; 293407</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>139931; 408882</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>205</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>10763</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>46045</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>25647</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>49872</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>176842</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>76916</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>60636</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>222887</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>102562</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>5752; 20366</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>34813; 59740</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>12793; 50288</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>37529; 66057</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>153688; 206020</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>63185; 99141</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>47238; 77589</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>195286; 252198</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>81428; 132963</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>484</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>361</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>486</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>599</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>970</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>960</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>142116</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>529206</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>348329</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>159575</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>514794</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>435431</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>301691</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>1044001</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>783760</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>119145; 168057</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>486038; 576785</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>266203; 396028</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>136213; 187076</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>475688; 561346</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>353643; 672730</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>268148; 335081</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>981727; 1104254</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>677779; 1008507</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P04D$notiene-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P04D$notiene-Clase-trans_dic.xlsx
@@ -1173,7 +1173,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2354,7 +2354,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
